--- a/Dispa-SET/Simulation/InputDispa-SET - Sets.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Sets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="315">
   <si>
     <t>d</t>
   </si>
@@ -46,51 +46,51 @@
     <t>9</t>
   </si>
   <si>
+    <t>y_config</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>VRE</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>y_config</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Bio</t>
-  </si>
-  <si>
-    <t>VRE</t>
-  </si>
-  <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -707,78 +707,6 @@
   </si>
   <si>
     <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
   </si>
   <si>
     <t>tr</t>
@@ -1389,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M242"/>
+  <dimension ref="A2:M218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1400,40 +1328,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1441,40 +1369,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1482,34 +1410,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1517,28 +1445,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1546,22 +1474,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1569,19 +1497,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1589,19 +1517,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1609,16 +1537,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1626,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1646,24 +1574,21 @@
         <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1671,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1682,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1693,7 +1618,7 @@
         <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1701,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="4:11">
@@ -1709,7 +1634,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="4:11">
@@ -1717,7 +1642,7 @@
         <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="4:11">
@@ -1725,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="4:11">
@@ -1733,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="4:11">
@@ -1741,7 +1666,7 @@
         <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="4:11">
@@ -1749,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="4:11">
@@ -1757,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="4:11">
@@ -1765,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:11">
@@ -1773,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="4:11">
@@ -1781,7 +1706,7 @@
         <v>38</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="4:11">
@@ -1789,7 +1714,7 @@
         <v>39</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="4:11">
@@ -1797,7 +1722,7 @@
         <v>40</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="4:11">
@@ -1805,7 +1730,7 @@
         <v>41</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="4:11">
@@ -1813,7 +1738,7 @@
         <v>42</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="4:11">
@@ -1821,7 +1746,7 @@
         <v>43</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="4:11">
@@ -1829,7 +1754,7 @@
         <v>44</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="4:11">
@@ -1837,7 +1762,7 @@
         <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -1845,7 +1770,7 @@
         <v>46</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="4:11">
@@ -1853,7 +1778,7 @@
         <v>47</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="4:11">
@@ -1861,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="4:11">
@@ -1869,7 +1794,7 @@
         <v>49</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="4:11">
@@ -1877,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="4:11">
@@ -1885,7 +1810,7 @@
         <v>51</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="4:11">
@@ -1893,7 +1818,7 @@
         <v>52</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="4:11">
@@ -1901,7 +1826,7 @@
         <v>53</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="4:11">
@@ -1909,7 +1834,7 @@
         <v>54</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="4:11">
@@ -1917,7 +1842,7 @@
         <v>55</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="4:11">
@@ -1925,7 +1850,7 @@
         <v>56</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="4:11">
@@ -1933,7 +1858,7 @@
         <v>57</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="4:11">
@@ -1941,7 +1866,7 @@
         <v>58</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="4:11">
@@ -1949,7 +1874,7 @@
         <v>59</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="4:11">
@@ -1957,7 +1882,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="4:11">
@@ -1965,7 +1890,7 @@
         <v>61</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="4:11">
@@ -1973,7 +1898,7 @@
         <v>62</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="4:11">
@@ -1981,7 +1906,7 @@
         <v>63</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="4:11">
@@ -2817,126 +2742,6 @@
     <row r="218" spans="4:4">
       <c r="D218" s="2" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4">
-      <c r="D223" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4">
-      <c r="D226" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4">
-      <c r="D229" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4">
-      <c r="D230" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4">
-      <c r="D239" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4">
-      <c r="D240" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4">
-      <c r="D241" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4">
-      <c r="D242" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Dispa-SET/Simulation/InputDispa-SET - Sets.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Sets.xlsx
@@ -1017,12 +1017,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,1382 +1364,1382 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>300</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>253</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>254</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>303</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>255</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>256</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>304</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>257</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>260</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="17" spans="4:11">
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="18" spans="4:11">
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="19" spans="4:11">
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="20" spans="4:11">
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:11">
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="26" spans="4:11">
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="27" spans="4:11">
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="28" spans="4:11">
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="4:11">
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="30" spans="4:11">
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="31" spans="4:11">
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="34" spans="4:11">
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="37" spans="4:11">
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="38" spans="4:11">
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="39" spans="4:11">
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="40" spans="4:11">
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="45" spans="4:11">
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="46" spans="4:11">
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="47" spans="4:11">
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>60</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="49" spans="4:11">
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="50" spans="4:11">
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>62</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="51" spans="4:11">
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>63</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="52" spans="4:11">
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="4:11">
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="4:11">
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="4:11">
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="4:11">
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="4:11">
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="4:11">
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="4:11">
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="4:11">
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="4:11">
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="4:11">
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="4:11">
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="4:11">
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="93" spans="4:4">
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="94" spans="4:4">
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="95" spans="4:4">
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="96" spans="4:4">
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="2" t="s">
+      <c r="D105" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="2" t="s">
+      <c r="D107" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="111" spans="4:4">
-      <c r="D111" s="2" t="s">
+      <c r="D111" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="2" t="s">
+      <c r="D117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="2" t="s">
+      <c r="D125" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="2" t="s">
+      <c r="D127" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="129" spans="4:4">
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="130" spans="4:4">
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="131" spans="4:4">
-      <c r="D131" s="2" t="s">
+      <c r="D131" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="132" spans="4:4">
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="133" spans="4:4">
-      <c r="D133" s="2" t="s">
+      <c r="D133" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="134" spans="4:4">
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="135" spans="4:4">
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="137" spans="4:4">
-      <c r="D137" s="2" t="s">
+      <c r="D137" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="138" spans="4:4">
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="139" spans="4:4">
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="140" spans="4:4">
-      <c r="D140" s="2" t="s">
+      <c r="D140" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="2" t="s">
+      <c r="D141" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="2" t="s">
+      <c r="D142" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="2" t="s">
+      <c r="D143" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="144" spans="4:4">
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" s="2" t="s">
+      <c r="D145" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="146" spans="4:4">
-      <c r="D146" s="2" t="s">
+      <c r="D146" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="2" t="s">
+      <c r="D147" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="2" t="s">
+      <c r="D151" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="2" t="s">
+      <c r="D152" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="2" t="s">
+      <c r="D153" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="155" spans="4:4">
-      <c r="D155" s="2" t="s">
+      <c r="D155" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="156" spans="4:4">
-      <c r="D156" s="2" t="s">
+      <c r="D156" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="157" spans="4:4">
-      <c r="D157" s="2" t="s">
+      <c r="D157" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="158" spans="4:4">
-      <c r="D158" s="2" t="s">
+      <c r="D158" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="159" spans="4:4">
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="160" spans="4:4">
-      <c r="D160" s="2" t="s">
+      <c r="D160" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="161" spans="4:4">
-      <c r="D161" s="2" t="s">
+      <c r="D161" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="162" spans="4:4">
-      <c r="D162" s="2" t="s">
+      <c r="D162" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="2" t="s">
+      <c r="D163" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="2" t="s">
+      <c r="D165" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="2" t="s">
+      <c r="D166" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="2" t="s">
+      <c r="D167" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="168" spans="4:4">
-      <c r="D168" s="2" t="s">
+      <c r="D168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="2" t="s">
+      <c r="D169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="2" t="s">
+      <c r="D170" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" spans="4:4">
-      <c r="D171" s="2" t="s">
+      <c r="D171" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="2" t="s">
+      <c r="D172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" spans="4:4">
-      <c r="D173" s="2" t="s">
+      <c r="D173" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="174" spans="4:4">
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="2" t="s">
+      <c r="D175" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="2" t="s">
+      <c r="D176" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="177" spans="4:4">
-      <c r="D177" s="2" t="s">
+      <c r="D177" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="2" t="s">
+      <c r="D178" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="179" spans="4:4">
-      <c r="D179" s="2" t="s">
+      <c r="D179" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="180" spans="4:4">
-      <c r="D180" s="2" t="s">
+      <c r="D180" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="182" spans="4:4">
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="2" t="s">
+      <c r="D183" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="184" spans="4:4">
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="185" spans="4:4">
-      <c r="D185" s="2" t="s">
+      <c r="D185" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="186" spans="4:4">
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="187" spans="4:4">
-      <c r="D187" s="2" t="s">
+      <c r="D187" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="188" spans="4:4">
-      <c r="D188" s="2" t="s">
+      <c r="D188" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="189" spans="4:4">
-      <c r="D189" s="2" t="s">
+      <c r="D189" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="190" spans="4:4">
-      <c r="D190" s="2" t="s">
+      <c r="D190" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="191" spans="4:4">
-      <c r="D191" s="2" t="s">
+      <c r="D191" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="2" t="s">
+      <c r="D193" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="195" spans="4:4">
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="2" t="s">
+      <c r="D197" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="2" t="s">
+      <c r="D198" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="2" t="s">
+      <c r="D201" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="202" spans="4:4">
-      <c r="D202" s="2" t="s">
+      <c r="D202" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="2" t="s">
+      <c r="D203" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="204" spans="4:4">
-      <c r="D204" s="2" t="s">
+      <c r="D204" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="205" spans="4:4">
-      <c r="D205" s="2" t="s">
+      <c r="D205" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="206" spans="4:4">
-      <c r="D206" s="2" t="s">
+      <c r="D206" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="207" spans="4:4">
-      <c r="D207" s="2" t="s">
+      <c r="D207" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="208" spans="4:4">
-      <c r="D208" s="2" t="s">
+      <c r="D208" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="2" t="s">
+      <c r="D210" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="2" t="s">
+      <c r="D211" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="212" spans="4:4">
-      <c r="D212" s="2" t="s">
+      <c r="D212" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="213" spans="4:4">
-      <c r="D213" s="2" t="s">
+      <c r="D213" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="214" spans="4:4">
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="2" t="s">
+      <c r="D215" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="2" t="s">
+      <c r="D216" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="217" spans="4:4">
-      <c r="D217" s="2" t="s">
+      <c r="D217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="218" spans="4:4">
-      <c r="D218" s="2" t="s">
+      <c r="D218" t="s">
         <v>230</v>
       </c>
     </row>
